--- a/bioinfo-m2/Results/Organelles/Ascomycetes/Total_mitochondrion.xlsx
+++ b/bioinfo-m2/Results/Organelles/Ascomycetes/Total_mitochondrion.xlsx
@@ -32,7 +32,7 @@
     <t>Modification date</t>
   </si>
   <si>
-    <t>14-Dec-2017</t>
+    <t>19-Dec-2017</t>
   </si>
   <si>
     <t>BioProject</t>
@@ -480,31 +480,31 @@
         <v>18</v>
       </c>
       <c r="B2" t="n" s="6">
-        <v>34532.0</v>
+        <v>35133.0</v>
       </c>
       <c r="C2" t="n" s="7">
-        <v>4.435459010666063</v>
+        <v>4.424510171852292</v>
       </c>
       <c r="D2" t="n" s="6">
-        <v>23292.0</v>
+        <v>23667.0</v>
       </c>
       <c r="E2" t="n" s="7">
-        <v>2.9917384245463325</v>
+        <v>2.9805277726703725</v>
       </c>
       <c r="F2" t="n" s="6">
-        <v>31203.0</v>
+        <v>31788.0</v>
       </c>
       <c r="G2" t="n" s="7">
-        <v>4.007865965186296</v>
+        <v>4.003254186742967</v>
       </c>
       <c r="H2" t="n" s="6">
-        <v>1425.0</v>
+        <v>1452.0</v>
       </c>
       <c r="I2" t="n" s="6">
-        <v>395.0</v>
+        <v>400.0</v>
       </c>
       <c r="J2" t="n" s="6">
-        <v>1217.0</v>
+        <v>1247.0</v>
       </c>
       <c r="M2" t="s" s="3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>19</v>
       </c>
       <c r="B3" t="n" s="8">
-        <v>8013.0</v>
+        <v>8139.0</v>
       </c>
       <c r="C3" t="n" s="9">
-        <v>1.0292289196243243</v>
+        <v>1.0249932624229585</v>
       </c>
       <c r="D3" t="n" s="8">
-        <v>7197.0</v>
+        <v>7299.0</v>
       </c>
       <c r="E3" t="n" s="9">
-        <v>0.92441788774944</v>
+        <v>0.919207006072635</v>
       </c>
       <c r="F3" t="n" s="8">
-        <v>16056.0</v>
+        <v>16384.0</v>
       </c>
       <c r="G3" t="n" s="9">
-        <v>2.062311186008755</v>
+        <v>2.0633357429091728</v>
       </c>
       <c r="H3" t="n" s="10">
-        <v>565.0</v>
+        <v>571.0</v>
       </c>
       <c r="I3" t="n" s="10">
-        <v>404.0</v>
+        <v>408.0</v>
       </c>
       <c r="J3" t="n" s="10">
-        <v>1926.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="4">
@@ -550,37 +550,37 @@
         <v>20</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>5790.0</v>
+        <v>5812.0</v>
       </c>
       <c r="C4" t="n" s="7">
-        <v>0.7436959247004665</v>
+        <v>0.7319401451286688</v>
       </c>
       <c r="D4" t="n" s="6">
-        <v>18163.0</v>
+        <v>18470.0</v>
       </c>
       <c r="E4" t="n" s="7">
-        <v>2.332944573460203</v>
+        <v>2.3260382795124763</v>
       </c>
       <c r="F4" t="n" s="6">
-        <v>16097.0</v>
+        <v>16410.0</v>
       </c>
       <c r="G4" t="n" s="7">
-        <v>2.0675774265809</v>
+        <v>2.0666100794152538</v>
       </c>
       <c r="H4" t="n" s="6">
-        <v>188.0</v>
+        <v>190.0</v>
       </c>
       <c r="I4" t="n" s="6">
-        <v>1430.0</v>
+        <v>1458.0</v>
       </c>
       <c r="J4" t="n" s="6">
-        <v>1276.0</v>
+        <v>1305.0</v>
       </c>
       <c r="M4" t="s" s="3">
         <v>2</v>
       </c>
       <c r="N4" t="n" s="1">
-        <v>1946994.0</v>
+        <v>1985783.0</v>
       </c>
     </row>
     <row r="5">
@@ -588,31 +588,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="n" s="8">
-        <v>40961.0</v>
+        <v>41988.0</v>
       </c>
       <c r="C5" t="n" s="9">
-        <v>5.261231221356789</v>
+        <v>5.287801585282613</v>
       </c>
       <c r="D5" t="n" s="8">
-        <v>21665.0</v>
+        <v>22173.0</v>
       </c>
       <c r="E5" t="n" s="9">
-        <v>2.7827585852565817</v>
+        <v>2.792379359590154</v>
       </c>
       <c r="F5" t="n" s="8">
-        <v>36890.0</v>
+        <v>37636.0</v>
       </c>
       <c r="G5" t="n" s="9">
-        <v>4.7383320660104</v>
+        <v>4.7397280285723635</v>
       </c>
       <c r="H5" t="n" s="10">
-        <v>1169.0</v>
+        <v>1190.0</v>
       </c>
       <c r="I5" t="n" s="10">
-        <v>236.0</v>
+        <v>245.0</v>
       </c>
       <c r="J5" t="n" s="10">
-        <v>1325.0</v>
+        <v>1349.0</v>
       </c>
     </row>
     <row r="6">
@@ -620,37 +620,37 @@
         <v>22</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>17941.0</v>
+        <v>18352.0</v>
       </c>
       <c r="C6" t="n" s="7">
-        <v>2.304429807435418</v>
+        <v>2.3111778292156453</v>
       </c>
       <c r="D6" t="n" s="6">
-        <v>6881.0</v>
+        <v>6980.0</v>
       </c>
       <c r="E6" t="n" s="7">
-        <v>0.8838293018763229</v>
+        <v>0.8790334158634048</v>
       </c>
       <c r="F6" t="n" s="6">
-        <v>12720.0</v>
+        <v>12981.0</v>
       </c>
       <c r="G6" t="n" s="7">
-        <v>1.6338190262849626</v>
+        <v>1.6347754686708964</v>
       </c>
       <c r="H6" t="n" s="6">
-        <v>1719.0</v>
+        <v>1759.0</v>
       </c>
       <c r="I6" t="n" s="6">
-        <v>357.0</v>
+        <v>358.0</v>
       </c>
       <c r="J6" t="n" s="6">
-        <v>924.0</v>
+        <v>940.0</v>
       </c>
       <c r="M6" t="s" s="3">
         <v>3</v>
       </c>
       <c r="N6" t="n" s="1">
-        <v>8013.0</v>
+        <v>8139.0</v>
       </c>
     </row>
     <row r="7">
@@ -658,31 +658,31 @@
         <v>23</v>
       </c>
       <c r="B7" t="n" s="8">
-        <v>1934.0</v>
+        <v>1941.0</v>
       </c>
       <c r="C7" t="n" s="9">
-        <v>0.2484124211348363</v>
+        <v>0.24444181378092672</v>
       </c>
       <c r="D7" t="n" s="8">
-        <v>3661.0</v>
+        <v>3712.0</v>
       </c>
       <c r="E7" t="n" s="9">
-        <v>0.47023674962494094</v>
+        <v>0.46747450425285936</v>
       </c>
       <c r="F7" t="n" s="8">
-        <v>11442.0</v>
+        <v>11686.0</v>
       </c>
       <c r="G7" t="n" s="9">
-        <v>1.4696664543044453</v>
+        <v>1.4716883234641474</v>
       </c>
       <c r="H7" t="n" s="10">
-        <v>376.0</v>
+        <v>379.0</v>
       </c>
       <c r="I7" t="n" s="10">
-        <v>591.0</v>
+        <v>600.0</v>
       </c>
       <c r="J7" t="n" s="10">
-        <v>2112.0</v>
+        <v>2158.0</v>
       </c>
     </row>
     <row r="8">
@@ -690,31 +690,31 @@
         <v>24</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>1379.0</v>
+        <v>1385.0</v>
       </c>
       <c r="C8" t="n" s="7">
-        <v>0.1771255060728745</v>
+        <v>0.17442138695856957</v>
       </c>
       <c r="D8" t="n" s="6">
-        <v>4377.0</v>
+        <v>4455.0</v>
       </c>
       <c r="E8" t="n" s="7">
-        <v>0.5622032922994719</v>
+        <v>0.5610449667151101</v>
       </c>
       <c r="F8" t="n" s="6">
-        <v>2195.0</v>
+        <v>2208.0</v>
       </c>
       <c r="G8" t="n" s="7">
-        <v>0.2819365379477589</v>
+        <v>0.27806673097799395</v>
       </c>
       <c r="H8" t="n" s="6">
-        <v>853.0</v>
+        <v>874.0</v>
       </c>
       <c r="I8" t="n" s="6">
-        <v>1872.0</v>
+        <v>1920.0</v>
       </c>
       <c r="J8" t="n" s="6">
-        <v>1234.0</v>
+        <v>1259.0</v>
       </c>
       <c r="M8" t="s" s="3">
         <v>4</v>
@@ -728,31 +728,31 @@
         <v>25</v>
       </c>
       <c r="B9" t="n" s="8">
-        <v>18879.0</v>
+        <v>19221.0</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>2.4249111161347336</v>
+        <v>2.420616230130445</v>
       </c>
       <c r="D9" t="n" s="8">
-        <v>6899.0</v>
+        <v>7030.0</v>
       </c>
       <c r="E9" t="n" s="9">
-        <v>0.8861413099323865</v>
+        <v>0.8853302168366384</v>
       </c>
       <c r="F9" t="n" s="8">
-        <v>7386.0</v>
+        <v>7485.0</v>
       </c>
       <c r="G9" t="n" s="9">
-        <v>0.948693972338108</v>
+        <v>0.9426311056930637</v>
       </c>
       <c r="H9" t="n" s="10">
-        <v>2092.0</v>
+        <v>2135.0</v>
       </c>
       <c r="I9" t="n" s="10">
-        <v>379.0</v>
+        <v>391.0</v>
       </c>
       <c r="J9" t="n" s="10">
-        <v>463.0</v>
+        <v>470.0</v>
       </c>
     </row>
     <row r="10">
@@ -760,31 +760,31 @@
         <v>26</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>15167.0</v>
+        <v>15452.0</v>
       </c>
       <c r="C10" t="n" s="7">
-        <v>1.9481236770176122</v>
+        <v>1.945963372768099</v>
       </c>
       <c r="D10" t="n" s="6">
-        <v>3793.0</v>
+        <v>3817.0</v>
       </c>
       <c r="E10" t="n" s="7">
-        <v>0.4871914753694075</v>
+        <v>0.48069778629664983</v>
       </c>
       <c r="F10" t="n" s="6">
-        <v>23311.0</v>
+        <v>23705.0</v>
       </c>
       <c r="G10" t="n" s="7">
-        <v>2.9941788774944</v>
+        <v>2.98531334141003</v>
       </c>
       <c r="H10" t="n" s="6">
-        <v>802.0</v>
+        <v>825.0</v>
       </c>
       <c r="I10" t="n" s="6">
         <v>80.0</v>
       </c>
       <c r="J10" t="n" s="6">
-        <v>2005.0</v>
+        <v>2042.0</v>
       </c>
       <c r="M10" t="s" s="3">
         <v>5</v>
@@ -798,31 +798,31 @@
         <v>27</v>
       </c>
       <c r="B11" t="n" s="8">
-        <v>3406.0</v>
+        <v>3453.0</v>
       </c>
       <c r="C11" t="n" s="9">
-        <v>0.4374833021640395</v>
+        <v>0.4348570752115095</v>
       </c>
       <c r="D11" t="n" s="8">
-        <v>1784.0</v>
+        <v>1788.0</v>
       </c>
       <c r="E11" t="n" s="9">
-        <v>0.2291456873343061</v>
+        <v>0.22517360280283205</v>
       </c>
       <c r="F11" t="n" s="8">
-        <v>18800.0</v>
+        <v>19173.0</v>
       </c>
       <c r="G11" t="n" s="9">
-        <v>2.4147639696664545</v>
+        <v>2.4145713011961405</v>
       </c>
       <c r="H11" t="n" s="10">
-        <v>304.0</v>
+        <v>314.0</v>
       </c>
       <c r="I11" t="n" s="10">
-        <v>231.0</v>
+        <v>237.0</v>
       </c>
       <c r="J11" t="n" s="10">
-        <v>2383.0</v>
+        <v>2434.0</v>
       </c>
     </row>
     <row r="12">
@@ -830,31 +830,31 @@
         <v>28</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>1462.0</v>
+        <v>1466.0</v>
       </c>
       <c r="C12" t="n" s="7">
-        <v>0.18778643210916787</v>
+        <v>0.18462220453520792</v>
       </c>
       <c r="D12" t="n" s="6">
-        <v>3780.0</v>
+        <v>3787.0</v>
       </c>
       <c r="E12" t="n" s="7">
-        <v>0.4855216917733616</v>
+        <v>0.47691970571270975</v>
       </c>
       <c r="F12" t="n" s="6">
-        <v>23747.0</v>
+        <v>24272.0</v>
       </c>
       <c r="G12" t="n" s="7">
-        <v>3.0501808504079406</v>
+        <v>3.0567190644464985</v>
       </c>
       <c r="H12" t="n" s="6">
-        <v>194.0</v>
+        <v>199.0</v>
       </c>
       <c r="I12" t="n" s="6">
-        <v>288.0</v>
+        <v>293.0</v>
       </c>
       <c r="J12" t="n" s="6">
-        <v>2411.0</v>
+        <v>2463.0</v>
       </c>
       <c r="M12" t="s" s="3">
         <v>7</v>
@@ -868,31 +868,31 @@
         <v>29</v>
       </c>
       <c r="B13" t="n" s="8">
-        <v>21393.0</v>
+        <v>21753.0</v>
       </c>
       <c r="C13" t="n" s="9">
-        <v>2.74782157463162</v>
+        <v>2.739486231414992</v>
       </c>
       <c r="D13" t="n" s="8">
-        <v>3524.0</v>
+        <v>3546.0</v>
       </c>
       <c r="E13" t="n" s="9">
-        <v>0.4526397994204566</v>
+        <v>0.4465691250217239</v>
       </c>
       <c r="F13" t="n" s="8">
-        <v>19386.0</v>
+        <v>19836.0</v>
       </c>
       <c r="G13" t="n" s="9">
-        <v>2.4900326763805256</v>
+        <v>2.498066882101217</v>
       </c>
       <c r="H13" t="n" s="10">
-        <v>1480.0</v>
+        <v>1507.0</v>
       </c>
       <c r="I13" t="n" s="10">
-        <v>76.0</v>
+        <v>77.0</v>
       </c>
       <c r="J13" t="n" s="10">
-        <v>1279.0</v>
+        <v>1312.0</v>
       </c>
     </row>
     <row r="14">
@@ -900,31 +900,31 @@
         <v>30</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>46457.0</v>
+        <v>47321.0</v>
       </c>
       <c r="C14" t="n" s="7">
-        <v>5.967164347808216</v>
+        <v>5.9594183770877045</v>
       </c>
       <c r="D14" t="n" s="6">
-        <v>46519.0</v>
+        <v>47681.0</v>
       </c>
       <c r="E14" t="n" s="7">
-        <v>5.975127931112436</v>
+        <v>6.004755344094986</v>
       </c>
       <c r="F14" t="n" s="6">
-        <v>17630.0</v>
+        <v>18039.0</v>
       </c>
       <c r="G14" t="n" s="7">
-        <v>2.2644834460223184</v>
+        <v>2.271759855123203</v>
       </c>
       <c r="H14" t="n" s="6">
-        <v>1410.0</v>
+        <v>1435.0</v>
       </c>
       <c r="I14" t="n" s="6">
-        <v>1142.0</v>
+        <v>1162.0</v>
       </c>
       <c r="J14" t="n" s="6">
-        <v>129.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="15">
@@ -932,31 +932,31 @@
         <v>31</v>
       </c>
       <c r="B15" t="n" s="8">
-        <v>7193.0</v>
+        <v>7296.0</v>
       </c>
       <c r="C15" t="n" s="9">
-        <v>0.9239041081814259</v>
+        <v>0.9188291980142408</v>
       </c>
       <c r="D15" t="n" s="8">
-        <v>10787.0</v>
+        <v>10973.0</v>
       </c>
       <c r="E15" t="n" s="9">
-        <v>1.38553505004213</v>
+        <v>1.3818959415858367</v>
       </c>
       <c r="F15" t="n" s="8">
-        <v>16726.0</v>
+        <v>17058.0</v>
       </c>
       <c r="G15" t="n" s="9">
-        <v>2.148369263651123</v>
+        <v>2.148216620028361</v>
       </c>
       <c r="H15" t="n" s="10">
-        <v>414.0</v>
+        <v>419.0</v>
       </c>
       <c r="I15" t="n" s="10">
-        <v>809.0</v>
+        <v>822.0</v>
       </c>
       <c r="J15" t="n" s="10">
-        <v>1731.0</v>
+        <v>1769.0</v>
       </c>
     </row>
     <row r="16">
@@ -964,28 +964,28 @@
         <v>32</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>18148.0</v>
+        <v>18541.0</v>
       </c>
       <c r="C16" t="n" s="7">
-        <v>2.3310179000801496</v>
+        <v>2.3349797368944682</v>
       </c>
       <c r="D16" t="n" s="6">
-        <v>20618.0</v>
+        <v>21047.0</v>
       </c>
       <c r="E16" t="n" s="7">
-        <v>2.6482767833288805</v>
+        <v>2.650575401672934</v>
       </c>
       <c r="F16" t="n" s="6">
-        <v>6470.0</v>
+        <v>6613.0</v>
       </c>
       <c r="G16" t="n" s="7">
-        <v>0.8310384512628702</v>
+        <v>0.8328148967198703</v>
       </c>
       <c r="H16" t="n" s="6">
-        <v>1252.0</v>
+        <v>1279.0</v>
       </c>
       <c r="I16" t="n" s="6">
-        <v>1507.0</v>
+        <v>1534.0</v>
       </c>
       <c r="J16" t="n" s="6">
         <v>41.0</v>
@@ -996,31 +996,31 @@
         <v>33</v>
       </c>
       <c r="B17" t="n" s="8">
-        <v>33227.0</v>
+        <v>34207.0</v>
       </c>
       <c r="C17" t="n" s="9">
-        <v>4.267838426601451</v>
+        <v>4.307893417828006</v>
       </c>
       <c r="D17" t="n" s="8">
-        <v>29912.0</v>
+        <v>30510.0</v>
       </c>
       <c r="E17" t="n" s="9">
-        <v>3.8420436096097332</v>
+        <v>3.8423079538671177</v>
       </c>
       <c r="F17" t="n" s="8">
-        <v>61103.0</v>
+        <v>62722.0</v>
       </c>
       <c r="G17" t="n" s="9">
-        <v>7.8483682360919875</v>
+        <v>7.898959012863105</v>
       </c>
       <c r="H17" t="n" s="10">
-        <v>411.0</v>
+        <v>422.0</v>
       </c>
       <c r="I17" t="n" s="10">
         <v>350.0</v>
       </c>
       <c r="J17" t="n" s="10">
-        <v>1946.0</v>
+        <v>1988.0</v>
       </c>
     </row>
     <row r="18">
@@ -1028,31 +1028,31 @@
         <v>34</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>14701.0</v>
+        <v>15010.0</v>
       </c>
       <c r="C18" t="n" s="7">
-        <v>1.8882683573439651</v>
+        <v>1.8902996521647144</v>
       </c>
       <c r="D18" t="n" s="6">
-        <v>15212.0</v>
+        <v>15510.0</v>
       </c>
       <c r="E18" t="n" s="7">
-        <v>1.9539036971577712</v>
+        <v>1.95326766189705</v>
       </c>
       <c r="F18" t="n" s="6">
-        <v>5178.0</v>
+        <v>5245.0</v>
       </c>
       <c r="G18" t="n" s="7">
-        <v>0.6650876507943032</v>
+        <v>0.6605344220922003</v>
       </c>
       <c r="H18" t="n" s="6">
-        <v>1366.0</v>
+        <v>1396.0</v>
       </c>
       <c r="I18" t="n" s="6">
-        <v>1341.0</v>
+        <v>1369.0</v>
       </c>
       <c r="J18" t="n" s="6">
-        <v>217.0</v>
+        <v>218.0</v>
       </c>
     </row>
     <row r="19">
@@ -1060,31 +1060,31 @@
         <v>35</v>
       </c>
       <c r="B19" t="n" s="8">
-        <v>3113.0</v>
+        <v>3170.0</v>
       </c>
       <c r="C19" t="n" s="9">
-        <v>0.39984894880700383</v>
+        <v>0.3992171817030076</v>
       </c>
       <c r="D19" t="n" s="8">
-        <v>6658.0</v>
+        <v>6804.0</v>
       </c>
       <c r="E19" t="n" s="9">
-        <v>0.8551860909595347</v>
+        <v>0.8568686764376227</v>
       </c>
       <c r="F19" t="n" s="8">
-        <v>2536.0</v>
+        <v>2570.0</v>
       </c>
       <c r="G19" t="n" s="9">
-        <v>0.32573624612096425</v>
+        <v>0.3236555700242049</v>
       </c>
       <c r="H19" t="n" s="10">
-        <v>807.0</v>
+        <v>821.0</v>
       </c>
       <c r="I19" t="n" s="10">
-        <v>1962.0</v>
+        <v>2007.0</v>
       </c>
       <c r="J19" t="n" s="10">
-        <v>716.0</v>
+        <v>727.0</v>
       </c>
     </row>
     <row r="20">
@@ -1092,31 +1092,31 @@
         <v>36</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>2021.0</v>
+        <v>2033.0</v>
       </c>
       <c r="C20" t="n" s="7">
-        <v>0.25958712673914386</v>
+        <v>0.2560279275716765</v>
       </c>
       <c r="D20" t="n" s="6">
-        <v>15485.0</v>
+        <v>15830.0</v>
       </c>
       <c r="E20" t="n" s="7">
-        <v>1.9889691526747366</v>
+        <v>1.9935671881257448</v>
       </c>
       <c r="F20" t="n" s="6">
-        <v>2597.0</v>
+        <v>2628.0</v>
       </c>
       <c r="G20" t="n" s="7">
-        <v>0.3335713845331799</v>
+        <v>0.33095985915315584</v>
       </c>
       <c r="H20" t="n" s="6">
-        <v>305.0</v>
+        <v>310.0</v>
       </c>
       <c r="I20" t="n" s="6">
-        <v>2381.0</v>
+        <v>2430.0</v>
       </c>
       <c r="J20" t="n" s="6">
-        <v>347.0</v>
+        <v>356.0</v>
       </c>
     </row>
     <row r="21">
@@ -1124,31 +1124,31 @@
         <v>37</v>
       </c>
       <c r="B21" t="n" s="8">
-        <v>11616.0</v>
+        <v>11853.0</v>
       </c>
       <c r="C21" t="n" s="9">
-        <v>1.4920158655130604</v>
+        <v>1.4927196387147474</v>
       </c>
       <c r="D21" t="n" s="8">
-        <v>16978.0</v>
+        <v>17406.0</v>
       </c>
       <c r="E21" t="n" s="9">
-        <v>2.180737376436014</v>
+        <v>2.1920423548020667</v>
       </c>
       <c r="F21" t="n" s="8">
-        <v>5687.0</v>
+        <v>5763.0</v>
       </c>
       <c r="G21" t="n" s="9">
-        <v>0.7304661008241025</v>
+        <v>0.7257692801749</v>
       </c>
       <c r="H21" t="n" s="10">
-        <v>926.0</v>
+        <v>936.0</v>
       </c>
       <c r="I21" t="n" s="10">
-        <v>1650.0</v>
+        <v>1694.0</v>
       </c>
       <c r="J21" t="n" s="10">
-        <v>380.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="22">
@@ -1156,31 +1156,31 @@
         <v>38</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>7453.0</v>
+        <v>7617.0</v>
       </c>
       <c r="C22" t="n" s="7">
-        <v>0.9572997801023448</v>
+        <v>0.9592546602624004</v>
       </c>
       <c r="D22" t="n" s="6">
-        <v>2543.0</v>
+        <v>2559.0</v>
       </c>
       <c r="E22" t="n" s="7">
-        <v>0.326635360364989</v>
+        <v>0.3222702738100935</v>
       </c>
       <c r="F22" t="n" s="6">
-        <v>3461.0</v>
+        <v>3515.0</v>
       </c>
       <c r="G22" t="n" s="7">
-        <v>0.44454777122423395</v>
+        <v>0.4426651084183192</v>
       </c>
       <c r="H22" t="n" s="6">
-        <v>1852.0</v>
+        <v>1894.0</v>
       </c>
       <c r="I22" t="n" s="6">
-        <v>750.0</v>
+        <v>759.0</v>
       </c>
       <c r="J22" t="n" s="6">
-        <v>834.0</v>
+        <v>847.0</v>
       </c>
     </row>
     <row r="23">
@@ -1188,31 +1188,31 @@
         <v>39</v>
       </c>
       <c r="B23" t="n" s="8">
-        <v>1462.0</v>
+        <v>1477.0</v>
       </c>
       <c r="C23" t="n" s="9">
-        <v>0.18778643210916787</v>
+        <v>0.18600750074931932</v>
       </c>
       <c r="D23" t="n" s="8">
-        <v>1279.0</v>
+        <v>1282.0</v>
       </c>
       <c r="E23" t="n" s="9">
-        <v>0.16428101687252103</v>
+        <v>0.16144997695370844</v>
       </c>
       <c r="F23" t="n" s="8">
-        <v>3060.0</v>
+        <v>3120.0</v>
       </c>
       <c r="G23" t="n" s="9">
-        <v>0.3930413695308165</v>
+        <v>0.3929203807297741</v>
       </c>
       <c r="H23" t="n" s="10">
-        <v>1283.0</v>
+        <v>1310.0</v>
       </c>
       <c r="I23" t="n" s="10">
-        <v>1144.0</v>
+        <v>1164.0</v>
       </c>
       <c r="J23" t="n" s="10">
-        <v>2066.0</v>
+        <v>2115.0</v>
       </c>
     </row>
     <row r="24">
@@ -1220,31 +1220,31 @@
         <v>40</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>1078.0</v>
+        <v>1085.0</v>
       </c>
       <c r="C24" t="n" s="7">
-        <v>0.13846359357981053</v>
+        <v>0.13664058111916821</v>
       </c>
       <c r="D24" t="n" s="6">
-        <v>2081.0</v>
+        <v>2106.0</v>
       </c>
       <c r="E24" t="n" s="7">
-        <v>0.26729382025935594</v>
+        <v>0.26522125699259747</v>
       </c>
       <c r="F24" t="n" s="6">
-        <v>619.0</v>
+        <v>620.0</v>
       </c>
       <c r="G24" t="n" s="7">
-        <v>0.07950738815018804</v>
+        <v>0.07808033206809613</v>
       </c>
       <c r="H24" t="n" s="6">
-        <v>1547.0</v>
+        <v>1580.0</v>
       </c>
       <c r="I24" t="n" s="6">
-        <v>2069.0</v>
+        <v>2117.0</v>
       </c>
       <c r="J24" t="n" s="6">
-        <v>1334.0</v>
+        <v>1362.0</v>
       </c>
     </row>
     <row r="25">
@@ -1252,31 +1252,31 @@
         <v>41</v>
       </c>
       <c r="B25" t="n" s="8">
-        <v>15826.0</v>
+        <v>16155.0</v>
       </c>
       <c r="C25" t="n" s="9">
-        <v>2.032768860847942</v>
+        <v>2.0344963944517627</v>
       </c>
       <c r="D25" t="n" s="8">
-        <v>3054.0</v>
+        <v>3090.0</v>
       </c>
       <c r="E25" t="n" s="9">
-        <v>0.3922707001787953</v>
+        <v>0.38914230014583395</v>
       </c>
       <c r="F25" t="n" s="8">
-        <v>2659.0</v>
+        <v>2667.0</v>
       </c>
       <c r="G25" t="n" s="9">
-        <v>0.34153496783739906</v>
+        <v>0.335871363912278</v>
       </c>
       <c r="H25" t="n" s="10">
-        <v>2318.0</v>
+        <v>2367.0</v>
       </c>
       <c r="I25" t="n" s="10">
-        <v>372.0</v>
+        <v>378.0</v>
       </c>
       <c r="J25" t="n" s="10">
-        <v>267.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="26">
@@ -1287,28 +1287,28 @@
         <v>932.0</v>
       </c>
       <c r="C26" t="n" s="7">
-        <v>0.11971063934729444</v>
+        <v>0.11737237014107353</v>
       </c>
       <c r="D26" t="n" s="6">
-        <v>1585.0</v>
+        <v>1591.0</v>
       </c>
       <c r="E26" t="n" s="7">
-        <v>0.20358515382560266</v>
+        <v>0.20036420696829182</v>
       </c>
       <c r="F26" t="n" s="6">
-        <v>2904.0</v>
+        <v>2931.0</v>
       </c>
       <c r="G26" t="n" s="7">
-        <v>0.3730039663782651</v>
+        <v>0.3691184730509512</v>
       </c>
       <c r="H26" t="n" s="6">
-        <v>1178.0</v>
+        <v>1205.0</v>
       </c>
       <c r="I26" t="n" s="6">
-        <v>1441.0</v>
+        <v>1473.0</v>
       </c>
       <c r="J26" t="n" s="6">
-        <v>2032.0</v>
+        <v>2080.0</v>
       </c>
     </row>
     <row r="27">
@@ -1316,31 +1316,31 @@
         <v>43</v>
       </c>
       <c r="B27" t="n" s="8">
-        <v>385.0</v>
+        <v>386.0</v>
       </c>
       <c r="C27" t="n" s="9">
-        <v>0.0494512834213609</v>
+        <v>0.04861130351336307</v>
       </c>
       <c r="D27" t="n" s="8">
-        <v>780.0</v>
+        <v>781.0</v>
       </c>
       <c r="E27" t="n" s="9">
-        <v>0.10018701576275715</v>
+        <v>0.09835603120190818</v>
       </c>
       <c r="F27" t="n" s="8">
-        <v>2620.0</v>
+        <v>2664.0</v>
       </c>
       <c r="G27" t="n" s="9">
-        <v>0.3365256170492612</v>
+        <v>0.335493555853884</v>
       </c>
       <c r="H27" t="n" s="10">
-        <v>1180.0</v>
+        <v>1211.0</v>
       </c>
       <c r="I27" t="n" s="10">
-        <v>1360.0</v>
+        <v>1390.0</v>
       </c>
       <c r="J27" t="n" s="10">
-        <v>2230.0</v>
+        <v>2281.0</v>
       </c>
     </row>
     <row r="28">
@@ -1351,28 +1351,28 @@
         <v>465.0</v>
       </c>
       <c r="C28" t="n" s="7">
-        <v>0.05972687478164368</v>
+        <v>0.0585602490510721</v>
       </c>
       <c r="D28" t="n" s="6">
-        <v>2104.0</v>
+        <v>2121.0</v>
       </c>
       <c r="E28" t="n" s="7">
-        <v>0.27024805277543723</v>
+        <v>0.26711029728456753</v>
       </c>
       <c r="F28" t="n" s="6">
-        <v>3098.0</v>
+        <v>3149.0</v>
       </c>
       <c r="G28" t="n" s="7">
-        <v>0.3979222754269508</v>
+        <v>0.39657252529424947</v>
       </c>
       <c r="H28" t="n" s="6">
-        <v>900.0</v>
+        <v>922.0</v>
       </c>
       <c r="I28" t="n" s="6">
-        <v>1508.0</v>
+        <v>1537.0</v>
       </c>
       <c r="J28" t="n" s="6">
-        <v>1995.0</v>
+        <v>2044.0</v>
       </c>
     </row>
     <row r="29">
@@ -1380,31 +1380,31 @@
         <v>45</v>
       </c>
       <c r="B29" t="n" s="8">
-        <v>3520.0</v>
+        <v>3543.0</v>
       </c>
       <c r="C29" t="n" s="9">
-        <v>0.4521260198524425</v>
+        <v>0.4461913169633299</v>
       </c>
       <c r="D29" t="n" s="8">
-        <v>1294.0</v>
+        <v>1304.0</v>
       </c>
       <c r="E29" t="n" s="9">
-        <v>0.16620769025257404</v>
+        <v>0.1642205693819312</v>
       </c>
       <c r="F29" t="n" s="8">
-        <v>2965.0</v>
+        <v>3015.0</v>
       </c>
       <c r="G29" t="n" s="9">
-        <v>0.38083910479048066</v>
+        <v>0.37969709868598356</v>
       </c>
       <c r="H29" t="n" s="10">
-        <v>1554.0</v>
+        <v>1583.0</v>
       </c>
       <c r="I29" t="n" s="10">
-        <v>807.0</v>
+        <v>830.0</v>
       </c>
       <c r="J29" t="n" s="10">
-        <v>1419.0</v>
+        <v>1459.0</v>
       </c>
     </row>
     <row r="30">
@@ -1412,31 +1412,31 @@
         <v>46</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>8113.0</v>
+        <v>8231.0</v>
       </c>
       <c r="C30" t="n" s="7">
-        <v>1.042073408824678</v>
+        <v>1.0365793762137083</v>
       </c>
       <c r="D30" t="n" s="6">
-        <v>31763.0</v>
+        <v>32432.0</v>
       </c>
       <c r="E30" t="n" s="7">
-        <v>4.079795104708276</v>
+        <v>4.084356983278215</v>
       </c>
       <c r="F30" t="n" s="6">
-        <v>3930.0</v>
+        <v>4009.0</v>
       </c>
       <c r="G30" t="n" s="7">
-        <v>0.5047884255738918</v>
+        <v>0.5048775020338667</v>
       </c>
       <c r="H30" t="n" s="6">
-        <v>224.0</v>
+        <v>226.0</v>
       </c>
       <c r="I30" t="n" s="6">
-        <v>2409.0</v>
+        <v>2459.0</v>
       </c>
       <c r="J30" t="n" s="6">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="31">
@@ -1447,28 +1447,28 @@
         <v>1116.0</v>
       </c>
       <c r="C31" t="n" s="9">
-        <v>0.14334449947594485</v>
+        <v>0.14054459772257302</v>
       </c>
       <c r="D31" t="n" s="8">
-        <v>7711.0</v>
+        <v>7831.0</v>
       </c>
       <c r="E31" t="n" s="9">
-        <v>0.9904385622392567</v>
+        <v>0.9862049684278399</v>
       </c>
       <c r="F31" t="n" s="8">
-        <v>3840.0</v>
+        <v>3905.0</v>
       </c>
       <c r="G31" t="n" s="9">
-        <v>0.49322838529357366</v>
+        <v>0.4917801560095409</v>
       </c>
       <c r="H31" t="n" s="10">
-        <v>394.0</v>
+        <v>402.0</v>
       </c>
       <c r="I31" t="n" s="10">
-        <v>2090.0</v>
+        <v>2131.0</v>
       </c>
       <c r="J31" t="n" s="10">
-        <v>952.0</v>
+        <v>974.0</v>
       </c>
     </row>
     <row r="32">
@@ -1476,31 +1476,31 @@
         <v>48</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>1746.0</v>
+        <v>1752.0</v>
       </c>
       <c r="C32" t="n" s="7">
-        <v>0.22426478143817177</v>
+        <v>0.22063990610210388</v>
       </c>
       <c r="D32" t="n" s="6">
-        <v>15106.0</v>
+        <v>15386.0</v>
       </c>
       <c r="E32" t="n" s="7">
-        <v>1.9402885386053967</v>
+        <v>1.9376515954834306</v>
       </c>
       <c r="F32" t="n" s="6">
-        <v>1997.0</v>
+        <v>2035.0</v>
       </c>
       <c r="G32" t="n" s="7">
-        <v>0.25650444933105904</v>
+        <v>0.2562797996106058</v>
       </c>
       <c r="H32" t="n" s="6">
-        <v>324.0</v>
+        <v>333.0</v>
       </c>
       <c r="I32" t="n" s="6">
-        <v>2417.0</v>
+        <v>2467.0</v>
       </c>
       <c r="J32" t="n" s="6">
-        <v>324.0</v>
+        <v>333.0</v>
       </c>
     </row>
     <row r="33">
@@ -1508,31 +1508,31 @@
         <v>49</v>
       </c>
       <c r="B33" t="n" s="8">
-        <v>9610.0</v>
+        <v>9722.0</v>
       </c>
       <c r="C33" t="n" s="9">
-        <v>1.2343554121539695</v>
+        <v>1.224349981235533</v>
       </c>
       <c r="D33" t="n" s="8">
-        <v>22655.0</v>
+        <v>23075.0</v>
       </c>
       <c r="E33" t="n" s="9">
-        <v>2.909919028340081</v>
+        <v>2.9059736491472874</v>
       </c>
       <c r="F33" t="n" s="8">
-        <v>14365.0</v>
+        <v>14670.0</v>
       </c>
       <c r="G33" t="n" s="9">
-        <v>1.8451108736307775</v>
+        <v>1.8474814055467261</v>
       </c>
       <c r="H33" t="n" s="10">
-        <v>381.0</v>
+        <v>387.0</v>
       </c>
       <c r="I33" t="n" s="10">
-        <v>1855.0</v>
+        <v>1890.0</v>
       </c>
       <c r="J33" t="n" s="10">
-        <v>614.0</v>
+        <v>634.0</v>
       </c>
     </row>
     <row r="34">
@@ -1540,31 +1540,31 @@
         <v>50</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>21084.0</v>
+        <v>21466.0</v>
       </c>
       <c r="C34" t="n" s="7">
-        <v>2.708132103002528</v>
+        <v>2.7033425938286313</v>
       </c>
       <c r="D34" t="n" s="6">
-        <v>12321.0</v>
+        <v>12550.0</v>
       </c>
       <c r="E34" t="n" s="7">
-        <v>1.5825695143755523</v>
+        <v>1.5804970442816233</v>
       </c>
       <c r="F34" t="n" s="6">
-        <v>5329.0</v>
+        <v>5377.0</v>
       </c>
       <c r="G34" t="n" s="7">
-        <v>0.684482829486837</v>
+        <v>0.6771579766615369</v>
       </c>
       <c r="H34" t="n" s="6">
-        <v>2052.0</v>
+        <v>2096.0</v>
       </c>
       <c r="I34" t="n" s="6">
-        <v>726.0</v>
+        <v>739.0</v>
       </c>
       <c r="J34" t="n" s="6">
-        <v>213.0</v>
+        <v>219.0</v>
       </c>
     </row>
     <row r="35">
@@ -1572,31 +1572,31 @@
         <v>51</v>
       </c>
       <c r="B35" t="n" s="8">
-        <v>3502.0</v>
+        <v>3547.0</v>
       </c>
       <c r="C35" t="n" s="9">
-        <v>0.4498140117963789</v>
+        <v>0.44669506104118867</v>
       </c>
       <c r="D35" t="n" s="8">
-        <v>3942.0</v>
+        <v>4009.0</v>
       </c>
       <c r="E35" t="n" s="9">
-        <v>0.5063297642779342</v>
+        <v>0.5048775020338667</v>
       </c>
       <c r="F35" t="n" s="8">
-        <v>2346.0</v>
+        <v>2379.0</v>
       </c>
       <c r="G35" t="n" s="9">
-        <v>0.3013317166402926</v>
+        <v>0.2996017903064527</v>
       </c>
       <c r="H35" t="n" s="10">
-        <v>1324.0</v>
+        <v>1349.0</v>
       </c>
       <c r="I35" t="n" s="10">
-        <v>1611.0</v>
+        <v>1650.0</v>
       </c>
       <c r="J35" t="n" s="10">
-        <v>993.0</v>
+        <v>1014.0</v>
       </c>
     </row>
     <row r="36">
@@ -1604,31 +1604,31 @@
         <v>52</v>
       </c>
       <c r="B36" t="n" s="6">
-        <v>5069.0</v>
+        <v>5092.0</v>
       </c>
       <c r="C36" t="n" s="7">
-        <v>0.6510871575659178</v>
+        <v>0.6412662111141056</v>
       </c>
       <c r="D36" t="n" s="6">
-        <v>10395.0</v>
+        <v>10588.0</v>
       </c>
       <c r="E36" t="n" s="7">
-        <v>1.3351846523767443</v>
+        <v>1.3334105740919384</v>
       </c>
       <c r="F36" t="n" s="6">
-        <v>2590.0</v>
+        <v>2623.0</v>
       </c>
       <c r="G36" t="n" s="7">
-        <v>0.33267227028915514</v>
+        <v>0.33033017905583245</v>
       </c>
       <c r="H36" t="n" s="6">
-        <v>775.0</v>
+        <v>785.0</v>
       </c>
       <c r="I36" t="n" s="6">
-        <v>2074.0</v>
+        <v>2122.0</v>
       </c>
       <c r="J36" t="n" s="6">
-        <v>373.0</v>
+        <v>383.0</v>
       </c>
     </row>
     <row r="37">
@@ -1636,31 +1636,31 @@
         <v>53</v>
       </c>
       <c r="B37" t="n" s="8">
-        <v>21086.0</v>
+        <v>21445.0</v>
       </c>
       <c r="C37" t="n" s="9">
-        <v>2.7083889927865346</v>
+        <v>2.700697937419873</v>
       </c>
       <c r="D37" t="n" s="8">
-        <v>13608.0</v>
+        <v>13964.0</v>
       </c>
       <c r="E37" t="n" s="9">
-        <v>1.7478780903841016</v>
+        <v>1.7585705758046681</v>
       </c>
       <c r="F37" t="n" s="8">
-        <v>5289.0</v>
+        <v>5357.0</v>
       </c>
       <c r="G37" t="n" s="9">
-        <v>0.6793450338066955</v>
+        <v>0.6746392562722434</v>
       </c>
       <c r="H37" t="n" s="10">
-        <v>1849.0</v>
+        <v>1875.0</v>
       </c>
       <c r="I37" t="n" s="10">
-        <v>845.0</v>
+        <v>873.0</v>
       </c>
       <c r="J37" t="n" s="10">
-        <v>264.0</v>
+        <v>267.0</v>
       </c>
     </row>
     <row r="38">
@@ -1668,31 +1668,31 @@
         <v>54</v>
       </c>
       <c r="B38" t="n" s="6">
-        <v>12073.0</v>
+        <v>12336.0</v>
       </c>
       <c r="C38" t="n" s="7">
-        <v>1.5507151811586757</v>
+        <v>1.5535467361161837</v>
       </c>
       <c r="D38" t="n" s="6">
-        <v>1379.0</v>
+        <v>1393.0</v>
       </c>
       <c r="E38" t="n" s="7">
-        <v>0.1771255060728745</v>
+        <v>0.17542887511428693</v>
       </c>
       <c r="F38" t="n" s="6">
-        <v>2660.0</v>
+        <v>2695.0</v>
       </c>
       <c r="G38" t="n" s="7">
-        <v>0.34166341272940254</v>
+        <v>0.3393975724572888</v>
       </c>
       <c r="H38" t="n" s="6">
-        <v>2298.0</v>
+        <v>2350.0</v>
       </c>
       <c r="I38" t="n" s="6">
-        <v>351.0</v>
+        <v>360.0</v>
       </c>
       <c r="J38" t="n" s="6">
-        <v>478.0</v>
+        <v>486.0</v>
       </c>
     </row>
     <row r="39">
@@ -1700,31 +1700,31 @@
         <v>55</v>
       </c>
       <c r="B39" t="n" s="8">
-        <v>3409.0</v>
+        <v>3452.0</v>
       </c>
       <c r="C39" t="n" s="9">
-        <v>0.4378686368400502</v>
+        <v>0.43473113919204487</v>
       </c>
       <c r="D39" t="n" s="8">
-        <v>1064.0</v>
+        <v>1072.0</v>
       </c>
       <c r="E39" t="n" s="9">
-        <v>0.13666536509176103</v>
+        <v>0.1350034128661275</v>
       </c>
       <c r="F39" t="n" s="8">
-        <v>2315.0</v>
+        <v>2355.0</v>
       </c>
       <c r="G39" t="n" s="9">
-        <v>0.2973499249881831</v>
+        <v>0.29657932583930063</v>
       </c>
       <c r="H39" t="n" s="10">
-        <v>1754.0</v>
+        <v>1789.0</v>
       </c>
       <c r="I39" t="n" s="10">
-        <v>824.0</v>
+        <v>845.0</v>
       </c>
       <c r="J39" t="n" s="10">
-        <v>1397.0</v>
+        <v>1433.0</v>
       </c>
     </row>
     <row r="40">
@@ -1732,31 +1732,31 @@
         <v>56</v>
       </c>
       <c r="B40" t="n" s="6">
-        <v>1844.0</v>
+        <v>1858.0</v>
       </c>
       <c r="C40" t="n" s="7">
-        <v>0.23685238085451818</v>
+        <v>0.23398912416535902</v>
       </c>
       <c r="D40" t="n" s="6">
-        <v>1093.0</v>
+        <v>1106.0</v>
       </c>
       <c r="E40" t="n" s="7">
-        <v>0.14039026695986356</v>
+        <v>0.13928523752792632</v>
       </c>
       <c r="F40" t="n" s="6">
-        <v>623.0</v>
+        <v>625.0</v>
       </c>
       <c r="G40" t="n" s="7">
-        <v>0.08002116771820218</v>
+        <v>0.07871001216541948</v>
       </c>
       <c r="H40" t="n" s="6">
-        <v>1992.0</v>
+        <v>2036.0</v>
       </c>
       <c r="I40" t="n" s="6">
-        <v>1651.0</v>
+        <v>1692.0</v>
       </c>
       <c r="J40" t="n" s="6">
-        <v>1393.0</v>
+        <v>1427.0</v>
       </c>
     </row>
     <row r="41">
@@ -1764,31 +1764,31 @@
         <v>57</v>
       </c>
       <c r="B41" t="n" s="8">
-        <v>22589.0</v>
+        <v>23067.0</v>
       </c>
       <c r="C41" t="n" s="9">
-        <v>2.9014416654678477</v>
+        <v>2.90496616099157</v>
       </c>
       <c r="D41" t="n" s="8">
-        <v>2268.0</v>
+        <v>2290.0</v>
       </c>
       <c r="E41" t="n" s="9">
-        <v>0.29131301506401697</v>
+        <v>0.28839348457409697</v>
       </c>
       <c r="F41" t="n" s="8">
-        <v>2137.0</v>
+        <v>2153.0</v>
       </c>
       <c r="G41" t="n" s="9">
-        <v>0.2744867342115539</v>
+        <v>0.271140249907437</v>
       </c>
       <c r="H41" t="n" s="10">
-        <v>2457.0</v>
+        <v>2508.0</v>
       </c>
       <c r="I41" t="n" s="10">
-        <v>161.0</v>
+        <v>170.0</v>
       </c>
       <c r="J41" t="n" s="10">
-        <v>221.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="42">
@@ -1796,31 +1796,31 @@
         <v>58</v>
       </c>
       <c r="B42" t="n" s="6">
-        <v>15154.0</v>
+        <v>15500.0</v>
       </c>
       <c r="C42" t="n" s="7">
-        <v>1.9464538934215663</v>
+        <v>1.9520083017024032</v>
       </c>
       <c r="D42" t="n" s="6">
-        <v>1564.0</v>
+        <v>1572.0</v>
       </c>
       <c r="E42" t="n" s="7">
-        <v>0.20088781109352843</v>
+        <v>0.19797142259846306</v>
       </c>
       <c r="F42" t="n" s="6">
-        <v>4835.0</v>
+        <v>4869.0</v>
       </c>
       <c r="G42" t="n" s="7">
-        <v>0.6210310528370908</v>
+        <v>0.613182478773484</v>
       </c>
       <c r="H42" t="n" s="6">
-        <v>2169.0</v>
+        <v>2220.0</v>
       </c>
       <c r="I42" t="n" s="6">
-        <v>235.0</v>
+        <v>243.0</v>
       </c>
       <c r="J42" t="n" s="6">
-        <v>615.0</v>
+        <v>623.0</v>
       </c>
     </row>
     <row r="43">
@@ -1828,31 +1828,31 @@
         <v>59</v>
       </c>
       <c r="B43" t="n" s="8">
-        <v>1146.0</v>
+        <v>1150.0</v>
       </c>
       <c r="C43" t="n" s="9">
-        <v>0.1471978462360509</v>
+        <v>0.14482642238437185</v>
       </c>
       <c r="D43" t="n" s="8">
-        <v>852.0</v>
+        <v>858.0</v>
       </c>
       <c r="E43" t="n" s="9">
-        <v>0.10943504798701165</v>
+        <v>0.10805310470068787</v>
       </c>
       <c r="F43" t="n" s="8">
-        <v>3318.0</v>
+        <v>3362.0</v>
       </c>
       <c r="G43" t="n" s="9">
-        <v>0.4261801516677285</v>
+        <v>0.4233968974402245</v>
       </c>
       <c r="H43" t="n" s="10">
-        <v>1223.0</v>
+        <v>1249.0</v>
       </c>
       <c r="I43" t="n" s="10">
-        <v>1048.0</v>
+        <v>1078.0</v>
       </c>
       <c r="J43" t="n" s="10">
-        <v>2134.0</v>
+        <v>2183.0</v>
       </c>
     </row>
     <row r="44">
@@ -1860,31 +1860,31 @@
         <v>60</v>
       </c>
       <c r="B44" t="n" s="6">
-        <v>3827.0</v>
+        <v>3874.0</v>
       </c>
       <c r="C44" t="n" s="7">
-        <v>0.4915586016975277</v>
+        <v>0.4878761394061361</v>
       </c>
       <c r="D44" t="n" s="6">
-        <v>2090.0</v>
+        <v>2106.0</v>
       </c>
       <c r="E44" t="n" s="7">
-        <v>0.26844982428738773</v>
+        <v>0.26522125699259747</v>
       </c>
       <c r="F44" t="n" s="6">
-        <v>3431.0</v>
+        <v>3461.0</v>
       </c>
       <c r="G44" t="n" s="7">
-        <v>0.4406944244641279</v>
+        <v>0.43586456336722695</v>
       </c>
       <c r="H44" t="n" s="6">
-        <v>1757.0</v>
+        <v>1801.0</v>
       </c>
       <c r="I44" t="n" s="6">
-        <v>1038.0</v>
+        <v>1063.0</v>
       </c>
       <c r="J44" t="n" s="6">
-        <v>1632.0</v>
+        <v>1669.0</v>
       </c>
     </row>
     <row r="45">
@@ -1892,31 +1892,31 @@
         <v>61</v>
       </c>
       <c r="B45" t="n" s="8">
-        <v>25999.0</v>
+        <v>26543.0</v>
       </c>
       <c r="C45" t="n" s="9">
-        <v>3.3394387471999014</v>
+        <v>3.3427197646507665</v>
       </c>
       <c r="D45" t="n" s="8">
-        <v>2286.0</v>
+        <v>2308.0</v>
       </c>
       <c r="E45" t="n" s="9">
-        <v>0.29362502312008054</v>
+        <v>0.29066033292446103</v>
       </c>
       <c r="F45" t="n" s="8">
-        <v>3937.0</v>
+        <v>3986.0</v>
       </c>
       <c r="G45" t="n" s="9">
-        <v>0.5056875398179166</v>
+        <v>0.5019809735861792</v>
       </c>
       <c r="H45" t="n" s="10">
-        <v>2461.0</v>
+        <v>2512.0</v>
       </c>
       <c r="I45" t="n" s="10">
-        <v>146.0</v>
+        <v>149.0</v>
       </c>
       <c r="J45" t="n" s="10">
-        <v>186.0</v>
+        <v>191.0</v>
       </c>
     </row>
     <row r="46">
@@ -1924,28 +1924,28 @@
         <v>62</v>
       </c>
       <c r="B46" t="n" s="6">
-        <v>22614.0</v>
+        <v>23211.0</v>
       </c>
       <c r="C46" t="n" s="7">
-        <v>2.904652787767936</v>
+        <v>2.9231009477944827</v>
       </c>
       <c r="D46" t="n" s="6">
-        <v>20646.0</v>
+        <v>21046.0</v>
       </c>
       <c r="E46" t="n" s="7">
-        <v>2.6518732403049796</v>
+        <v>2.6504494656534696</v>
       </c>
       <c r="F46" t="n" s="6">
-        <v>2936.0</v>
+        <v>2966.0</v>
       </c>
       <c r="G46" t="n" s="7">
-        <v>0.3771142029223782</v>
+        <v>0.37352623373221466</v>
       </c>
       <c r="H46" t="n" s="6">
-        <v>1537.0</v>
+        <v>1578.0</v>
       </c>
       <c r="I46" t="n" s="6">
-        <v>1215.0</v>
+        <v>1230.0</v>
       </c>
       <c r="J46" t="n" s="6">
         <v>29.0</v>
@@ -1956,31 +1956,31 @@
         <v>63</v>
       </c>
       <c r="B47" t="n" s="8">
-        <v>1739.0</v>
+        <v>1747.0</v>
       </c>
       <c r="C47" t="n" s="9">
-        <v>0.22336566719414705</v>
+        <v>0.2200102260047805</v>
       </c>
       <c r="D47" t="n" s="8">
-        <v>5464.0</v>
+        <v>5557.0</v>
       </c>
       <c r="E47" t="n" s="9">
-        <v>0.7018228899073142</v>
+        <v>0.6998264601651777</v>
       </c>
       <c r="F47" t="n" s="8">
-        <v>2731.0</v>
+        <v>2761.0</v>
       </c>
       <c r="G47" t="n" s="9">
-        <v>0.3507830000616535</v>
+        <v>0.3477093497419571</v>
       </c>
       <c r="H47" t="n" s="10">
-        <v>722.0</v>
+        <v>737.0</v>
       </c>
       <c r="I47" t="n" s="10">
-        <v>1945.0</v>
+        <v>1991.0</v>
       </c>
       <c r="J47" t="n" s="10">
-        <v>1067.0</v>
+        <v>1090.0</v>
       </c>
     </row>
     <row r="48">
@@ -1988,31 +1988,31 @@
         <v>64</v>
       </c>
       <c r="B48" t="n" s="6">
-        <v>3715.0</v>
+        <v>3774.0</v>
       </c>
       <c r="C48" t="n" s="7">
-        <v>0.4771727737931318</v>
+        <v>0.47528253745966903</v>
       </c>
       <c r="D48" t="n" s="6">
-        <v>12599.0</v>
+        <v>12817.0</v>
       </c>
       <c r="E48" t="n" s="7">
-        <v>1.618277194352535</v>
+        <v>1.6141219614786904</v>
       </c>
       <c r="F48" t="n" s="6">
-        <v>1151.0</v>
+        <v>1169.0</v>
       </c>
       <c r="G48" t="n" s="7">
-        <v>0.14784007069606858</v>
+        <v>0.1472192067542006</v>
       </c>
       <c r="H48" t="n" s="6">
-        <v>524.0</v>
+        <v>536.0</v>
       </c>
       <c r="I48" t="n" s="6">
-        <v>2339.0</v>
+        <v>2389.0</v>
       </c>
       <c r="J48" t="n" s="6">
-        <v>258.0</v>
+        <v>269.0</v>
       </c>
     </row>
     <row r="49">
@@ -2020,31 +2020,31 @@
         <v>65</v>
       </c>
       <c r="B49" t="n" s="8">
-        <v>18185.0</v>
+        <v>18493.0</v>
       </c>
       <c r="C49" t="n" s="9">
-        <v>2.3357703610842804</v>
+        <v>2.328934807960164</v>
       </c>
       <c r="D49" t="n" s="8">
-        <v>18053.0</v>
+        <v>18373.0</v>
       </c>
       <c r="E49" t="n" s="9">
-        <v>2.318815635339814</v>
+        <v>2.3138224856244034</v>
       </c>
       <c r="F49" t="n" s="8">
-        <v>8796.0</v>
+        <v>8935.0</v>
       </c>
       <c r="G49" t="n" s="9">
-        <v>1.1298012700630922</v>
+        <v>1.1252383339168368</v>
       </c>
       <c r="H49" t="n" s="10">
-        <v>1329.0</v>
+        <v>1356.0</v>
       </c>
       <c r="I49" t="n" s="10">
-        <v>1342.0</v>
+        <v>1372.0</v>
       </c>
       <c r="J49" t="n" s="10">
-        <v>332.0</v>
+        <v>337.0</v>
       </c>
     </row>
     <row r="50">
@@ -2058,25 +2058,25 @@
         <v>0.0</v>
       </c>
       <c r="D50" t="n" s="6">
-        <v>49421.0</v>
+        <v>50491.0</v>
       </c>
       <c r="E50" t="n" s="7">
-        <v>6.347875007706694</v>
+        <v>6.358635558790712</v>
       </c>
       <c r="F50" t="n" s="6">
-        <v>47586.0</v>
+        <v>48662.0</v>
       </c>
       <c r="G50" t="n" s="7">
-        <v>6.112178630880207</v>
+        <v>6.128298579189828</v>
       </c>
       <c r="H50" t="n" s="6">
         <v>4.0</v>
       </c>
       <c r="I50" t="n" s="6">
-        <v>1533.0</v>
+        <v>1568.0</v>
       </c>
       <c r="J50" t="n" s="6">
-        <v>1115.0</v>
+        <v>1134.0</v>
       </c>
     </row>
     <row r="51">
@@ -2084,31 +2084,31 @@
         <v>67</v>
       </c>
       <c r="B51" t="n" s="8">
-        <v>7190.0</v>
+        <v>7321.0</v>
       </c>
       <c r="C51" t="n" s="9">
-        <v>0.9235187735054152</v>
+        <v>0.9219775985008576</v>
       </c>
       <c r="D51" t="n" s="8">
-        <v>15946.0</v>
+        <v>16248.0</v>
       </c>
       <c r="E51" t="n" s="9">
-        <v>2.048182247888366</v>
+        <v>2.0462084442619775</v>
       </c>
       <c r="F51" t="n" s="8">
-        <v>19195.0</v>
+        <v>19566.0</v>
       </c>
       <c r="G51" t="n" s="9">
-        <v>2.4654997020078504</v>
+        <v>2.464064156845756</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>270.0</v>
+        <v>278.0</v>
       </c>
       <c r="I51" t="n" s="10">
-        <v>1083.0</v>
+        <v>1103.0</v>
       </c>
       <c r="J51" t="n" s="10">
-        <v>1584.0</v>
+        <v>1617.0</v>
       </c>
     </row>
     <row r="52">
@@ -2119,28 +2119,28 @@
         <v>1.0</v>
       </c>
       <c r="C52" t="n" s="7">
-        <v>1.284448920035348E-4</v>
+        <v>1.259360194646712E-4</v>
       </c>
       <c r="D52" t="n" s="6">
-        <v>41201.0</v>
+        <v>42098.0</v>
       </c>
       <c r="E52" t="n" s="7">
-        <v>5.292057995437637</v>
+        <v>5.301654547423727</v>
       </c>
       <c r="F52" t="n" s="6">
-        <v>20144.0</v>
+        <v>20463.0</v>
       </c>
       <c r="G52" t="n" s="7">
-        <v>2.587393904519205</v>
+        <v>2.577028766305566</v>
       </c>
       <c r="H52" t="n" s="6">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="I52" t="n" s="6">
-        <v>2266.0</v>
+        <v>2315.0</v>
       </c>
       <c r="J52" t="n" s="6">
-        <v>376.0</v>
+        <v>382.0</v>
       </c>
     </row>
     <row r="53">
@@ -2148,31 +2148,31 @@
         <v>69</v>
       </c>
       <c r="B53" t="n" s="8">
-        <v>34173.0</v>
+        <v>34925.0</v>
       </c>
       <c r="C53" t="n" s="9">
-        <v>4.389347294436795</v>
+        <v>4.398315479803641</v>
       </c>
       <c r="D53" t="n" s="8">
-        <v>49678.0</v>
+        <v>50889.0</v>
       </c>
       <c r="E53" t="n" s="9">
-        <v>6.380885344951602</v>
+        <v>6.40875809453765</v>
       </c>
       <c r="F53" t="n" s="8">
-        <v>54724.0</v>
+        <v>56122.0</v>
       </c>
       <c r="G53" t="n" s="9">
-        <v>7.029018270001439</v>
+        <v>7.0677812843962755</v>
       </c>
       <c r="H53" t="n" s="10">
-        <v>352.0</v>
+        <v>354.0</v>
       </c>
       <c r="I53" t="n" s="10">
-        <v>1025.0</v>
+        <v>1048.0</v>
       </c>
       <c r="J53" t="n" s="10">
-        <v>1387.0</v>
+        <v>1418.0</v>
       </c>
     </row>
     <row r="54">
@@ -2180,31 +2180,31 @@
         <v>70</v>
       </c>
       <c r="B54" t="n" s="6">
-        <v>16866.0</v>
+        <v>17245.0</v>
       </c>
       <c r="C54" t="n" s="7">
-        <v>2.166351548531618</v>
+        <v>2.171766655668254</v>
       </c>
       <c r="D54" t="n" s="6">
-        <v>5195.0</v>
+        <v>5274.0</v>
       </c>
       <c r="E54" t="n" s="7">
-        <v>0.6672712139583633</v>
+        <v>0.6641865666566757</v>
       </c>
       <c r="F54" t="n" s="6">
-        <v>12610.0</v>
+        <v>12875.0</v>
       </c>
       <c r="G54" t="n" s="7">
-        <v>1.619690088164574</v>
+        <v>1.6214262506076413</v>
       </c>
       <c r="H54" t="n" s="6">
-        <v>1686.0</v>
+        <v>1724.0</v>
       </c>
       <c r="I54" t="n" s="6">
-        <v>232.0</v>
+        <v>236.0</v>
       </c>
       <c r="J54" t="n" s="6">
-        <v>1006.0</v>
+        <v>1027.0</v>
       </c>
     </row>
     <row r="55">
@@ -2212,31 +2212,31 @@
         <v>71</v>
       </c>
       <c r="B55" t="n" s="8">
-        <v>2152.0</v>
+        <v>2167.0</v>
       </c>
       <c r="C55" t="n" s="9">
-        <v>0.27641340759160693</v>
+        <v>0.27290335417994244</v>
       </c>
       <c r="D55" t="n" s="8">
-        <v>3795.0</v>
+        <v>3856.0</v>
       </c>
       <c r="E55" t="n" s="9">
-        <v>0.4874483651534146</v>
+        <v>0.48560929105577205</v>
       </c>
       <c r="F55" t="n" s="8">
-        <v>9002.0</v>
+        <v>9173.0</v>
       </c>
       <c r="G55" t="n" s="9">
-        <v>1.1562609178158203</v>
+        <v>1.1552111065494286</v>
       </c>
       <c r="H55" t="n" s="10">
-        <v>528.0</v>
+        <v>537.0</v>
       </c>
       <c r="I55" t="n" s="10">
-        <v>709.0</v>
+        <v>726.0</v>
       </c>
       <c r="J55" t="n" s="10">
-        <v>2094.0</v>
+        <v>2139.0</v>
       </c>
     </row>
     <row r="56">
@@ -2244,31 +2244,31 @@
         <v>72</v>
       </c>
       <c r="B56" t="n" s="6">
-        <v>1462.0</v>
+        <v>1469.0</v>
       </c>
       <c r="C56" t="n" s="7">
-        <v>0.18778643210916787</v>
+        <v>0.18500001259360194</v>
       </c>
       <c r="D56" t="n" s="6">
-        <v>4036.0</v>
+        <v>4092.0</v>
       </c>
       <c r="E56" t="n" s="7">
-        <v>0.5184035841262664</v>
+        <v>0.5153301916494344</v>
       </c>
       <c r="F56" t="n" s="6">
-        <v>1865.0</v>
+        <v>1873.0</v>
       </c>
       <c r="G56" t="n" s="7">
-        <v>0.23954972358659238</v>
+        <v>0.2358781644573291</v>
       </c>
       <c r="H56" t="n" s="6">
-        <v>966.0</v>
+        <v>995.0</v>
       </c>
       <c r="I56" t="n" s="6">
-        <v>1812.0</v>
+        <v>1858.0</v>
       </c>
       <c r="J56" t="n" s="6">
-        <v>1169.0</v>
+        <v>1198.0</v>
       </c>
     </row>
     <row r="57">
@@ -2276,31 +2276,31 @@
         <v>73</v>
       </c>
       <c r="B57" t="n" s="8">
-        <v>19941.0</v>
+        <v>20281.0</v>
       </c>
       <c r="C57" t="n" s="9">
-        <v>2.5613195914424876</v>
+        <v>2.554108410762996</v>
       </c>
       <c r="D57" t="n" s="8">
-        <v>11911.0</v>
+        <v>12209.0</v>
       </c>
       <c r="E57" t="n" s="9">
-        <v>1.529907108654103</v>
+        <v>1.5375528616441703</v>
       </c>
       <c r="F57" t="n" s="8">
-        <v>8401.0</v>
+        <v>8514.0</v>
       </c>
       <c r="G57" t="n" s="9">
-        <v>1.0790655377216958</v>
+        <v>1.0722192697222104</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>1754.0</v>
+        <v>1784.0</v>
       </c>
       <c r="I57" t="n" s="10">
-        <v>768.0</v>
+        <v>794.0</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>326.0</v>
+        <v>331.0</v>
       </c>
     </row>
     <row r="58">
@@ -2308,31 +2308,31 @@
         <v>74</v>
       </c>
       <c r="B58" t="n" s="6">
-        <v>9013.0</v>
+        <v>9227.0</v>
       </c>
       <c r="C58" t="n" s="7">
-        <v>1.1576738116278593</v>
+        <v>1.1620116516005208</v>
       </c>
       <c r="D58" t="n" s="6">
-        <v>8612.0</v>
+        <v>8756.0</v>
       </c>
       <c r="E58" t="n" s="7">
-        <v>1.1061674099344416</v>
+        <v>1.1026957864326608</v>
       </c>
       <c r="F58" t="n" s="6">
-        <v>19691.0</v>
+        <v>20045.0</v>
       </c>
       <c r="G58" t="n" s="7">
-        <v>2.5292083684416036</v>
+        <v>2.524387510169334</v>
       </c>
       <c r="H58" t="n" s="6">
-        <v>446.0</v>
+        <v>456.0</v>
       </c>
       <c r="I58" t="n" s="6">
-        <v>528.0</v>
+        <v>545.0</v>
       </c>
       <c r="J58" t="n" s="6">
-        <v>1951.0</v>
+        <v>1986.0</v>
       </c>
     </row>
     <row r="59">
@@ -2340,31 +2340,31 @@
         <v>75</v>
       </c>
       <c r="B59" t="n" s="8">
-        <v>867.0</v>
+        <v>872.0</v>
       </c>
       <c r="C59" t="n" s="9">
-        <v>0.11136172136706468</v>
+        <v>0.10981620897319326</v>
       </c>
       <c r="D59" t="n" s="8">
-        <v>4319.0</v>
+        <v>4401.0</v>
       </c>
       <c r="E59" t="n" s="9">
-        <v>0.5547534885632669</v>
+        <v>0.5542444216640179</v>
       </c>
       <c r="F59" t="n" s="8">
-        <v>15177.0</v>
+        <v>15514.0</v>
       </c>
       <c r="G59" t="n" s="9">
-        <v>1.949408125937648</v>
+        <v>1.9537714059749085</v>
       </c>
       <c r="H59" t="n" s="10">
-        <v>142.0</v>
+        <v>146.0</v>
       </c>
       <c r="I59" t="n" s="10">
-        <v>419.0</v>
+        <v>429.0</v>
       </c>
       <c r="J59" t="n" s="10">
-        <v>2334.0</v>
+        <v>2381.0</v>
       </c>
     </row>
     <row r="60">
@@ -2372,31 +2372,31 @@
         <v>76</v>
       </c>
       <c r="B60" t="n" s="6">
-        <v>1038.0</v>
+        <v>1039.0</v>
       </c>
       <c r="C60" t="n" s="7">
-        <v>0.1333257978996691</v>
+        <v>0.13084752422379334</v>
       </c>
       <c r="D60" t="n" s="6">
-        <v>7547.0</v>
+        <v>7664.0</v>
       </c>
       <c r="E60" t="n" s="7">
-        <v>0.9693735999506771</v>
+        <v>0.9651736531772398</v>
       </c>
       <c r="F60" t="n" s="6">
-        <v>15850.0</v>
+        <v>16185.0</v>
       </c>
       <c r="G60" t="n" s="7">
-        <v>2.0358515382560265</v>
+        <v>2.0382744750357027</v>
       </c>
       <c r="H60" t="n" s="6">
-        <v>142.0</v>
+        <v>144.0</v>
       </c>
       <c r="I60" t="n" s="6">
-        <v>653.0</v>
+        <v>659.0</v>
       </c>
       <c r="J60" t="n" s="6">
-        <v>2205.0</v>
+        <v>2256.0</v>
       </c>
     </row>
     <row r="61">
@@ -2404,31 +2404,31 @@
         <v>77</v>
       </c>
       <c r="B61" t="n" s="8">
-        <v>5850.0</v>
+        <v>5954.0</v>
       </c>
       <c r="C61" t="n" s="9">
-        <v>0.7514026182206787</v>
+        <v>0.7498230598926521</v>
       </c>
       <c r="D61" t="n" s="8">
-        <v>8510.0</v>
+        <v>8673.0</v>
       </c>
       <c r="E61" t="n" s="9">
-        <v>1.0930660309500813</v>
+        <v>1.092243096817093</v>
       </c>
       <c r="F61" t="n" s="8">
-        <v>19930.0</v>
+        <v>20353.0</v>
       </c>
       <c r="G61" t="n" s="9">
-        <v>2.5599066976304483</v>
+        <v>2.563175804164452</v>
       </c>
       <c r="H61" t="n" s="10">
-        <v>261.0</v>
+        <v>265.0</v>
       </c>
       <c r="I61" t="n" s="10">
-        <v>414.0</v>
+        <v>423.0</v>
       </c>
       <c r="J61" t="n" s="10">
-        <v>2235.0</v>
+        <v>2282.0</v>
       </c>
     </row>
     <row r="62">
@@ -2436,28 +2436,28 @@
         <v>78</v>
       </c>
       <c r="B62" t="n" s="6">
-        <v>79062.0</v>
+        <v>80963.0</v>
       </c>
       <c r="C62" t="n" s="7">
-        <v>10.155110051583469</v>
+        <v>10.196157943918172</v>
       </c>
       <c r="D62" t="n" s="6">
-        <v>42721.0</v>
+        <v>43654.0</v>
       </c>
       <c r="E62" t="n" s="7">
-        <v>5.48729423128301</v>
+        <v>5.497610993710755</v>
       </c>
       <c r="F62" t="n" s="6">
-        <v>19407.0</v>
+        <v>19824.0</v>
       </c>
       <c r="G62" t="n" s="7">
-        <v>2.4927300191126</v>
+        <v>2.4965556498676413</v>
       </c>
       <c r="H62" t="n" s="6">
-        <v>2214.0</v>
+        <v>2265.0</v>
       </c>
       <c r="I62" t="n" s="6">
-        <v>389.0</v>
+        <v>390.0</v>
       </c>
       <c r="J62" t="n" s="6">
         <v>29.0</v>
@@ -2468,31 +2468,31 @@
         <v>79</v>
       </c>
       <c r="B63" t="n" s="8">
-        <v>14889.0</v>
+        <v>15272.0</v>
       </c>
       <c r="C63" t="n" s="9">
-        <v>1.9124159970406296</v>
+        <v>1.923294889264458</v>
       </c>
       <c r="D63" t="n" s="8">
-        <v>7916.0</v>
+        <v>8074.0</v>
       </c>
       <c r="E63" t="n" s="9">
-        <v>1.0167697650999814</v>
+        <v>1.016807421157755</v>
       </c>
       <c r="F63" t="n" s="8">
-        <v>17124.0</v>
+        <v>17438.0</v>
       </c>
       <c r="G63" t="n" s="9">
-        <v>2.19949033066853</v>
+        <v>2.1960723074249358</v>
       </c>
       <c r="H63" t="n" s="10">
-        <v>1037.0</v>
+        <v>1069.0</v>
       </c>
       <c r="I63" t="n" s="10">
-        <v>356.0</v>
+        <v>361.0</v>
       </c>
       <c r="J63" t="n" s="10">
-        <v>1505.0</v>
+        <v>1525.0</v>
       </c>
     </row>
     <row r="64">
@@ -2500,31 +2500,31 @@
         <v>80</v>
       </c>
       <c r="B64" t="n" s="6">
-        <v>5379.0</v>
+        <v>5427.0</v>
       </c>
       <c r="C64" t="n" s="7">
-        <v>0.6909050740870137</v>
+        <v>0.6834547776347705</v>
       </c>
       <c r="D64" t="n" s="6">
-        <v>22325.0</v>
+        <v>22847.0</v>
       </c>
       <c r="E64" t="n" s="7">
-        <v>2.8675322139789143</v>
+        <v>2.8772602367093425</v>
       </c>
       <c r="F64" t="n" s="6">
-        <v>7150.0</v>
+        <v>7275.0</v>
       </c>
       <c r="G64" t="n" s="7">
-        <v>0.9183809778252737</v>
+        <v>0.9161845416054828</v>
       </c>
       <c r="H64" t="n" s="6">
-        <v>240.0</v>
+        <v>245.0</v>
       </c>
       <c r="I64" t="n" s="6">
-        <v>2320.0</v>
+        <v>2370.0</v>
       </c>
       <c r="J64" t="n" s="6">
-        <v>226.0</v>
+        <v>230.0</v>
       </c>
     </row>
     <row r="65">
@@ -2532,31 +2532,31 @@
         <v>81</v>
       </c>
       <c r="B65" t="n" s="8">
-        <v>38587.0</v>
+        <v>39329.0</v>
       </c>
       <c r="C65" t="n" s="9">
-        <v>4.9563030477403975</v>
+        <v>4.9529377095260525</v>
       </c>
       <c r="D65" t="n" s="8">
-        <v>26647.0</v>
+        <v>27176.0</v>
       </c>
       <c r="E65" t="n" s="9">
-        <v>3.422671037218192</v>
+        <v>3.422437264971904</v>
       </c>
       <c r="F65" t="n" s="8">
-        <v>53586.0</v>
+        <v>54597.0</v>
       </c>
       <c r="G65" t="n" s="9">
-        <v>6.882847982901416</v>
+        <v>6.875728854712652</v>
       </c>
       <c r="H65" t="n" s="10">
-        <v>477.0</v>
+        <v>488.0</v>
       </c>
       <c r="I65" t="n" s="10">
-        <v>121.0</v>
+        <v>125.0</v>
       </c>
       <c r="J65" t="n" s="10">
-        <v>2180.0</v>
+        <v>2224.0</v>
       </c>
     </row>
     <row r="67">
@@ -2564,31 +2564,31 @@
         <v>82</v>
       </c>
       <c r="B67" t="n" s="8">
-        <v>778544.0</v>
+        <v>794054.0</v>
       </c>
       <c r="C67" t="n" s="9">
-        <v>99.99999999999997</v>
+        <v>100.0</v>
       </c>
       <c r="D67" t="n" s="8">
-        <v>778544.0</v>
+        <v>794054.0</v>
       </c>
       <c r="E67" t="n" s="9">
-        <v>99.99999999999999</v>
+        <v>100.0</v>
       </c>
       <c r="F67" t="n" s="8">
-        <v>778544.0</v>
+        <v>794054.0</v>
       </c>
       <c r="G67" t="n" s="9">
         <v>100.0</v>
       </c>
       <c r="H67" t="n" s="8">
-        <v>6416493.0</v>
+        <v>6819736.0</v>
       </c>
       <c r="I67" t="n" s="8">
-        <v>6410051.0</v>
+        <v>6813998.0</v>
       </c>
       <c r="J67" t="n" s="8">
-        <v>6750726.0</v>
+        <v>7175599.0</v>
       </c>
     </row>
     <row r="68"/>
@@ -2597,16 +2597,16 @@
         <v>83</v>
       </c>
       <c r="B71" t="n" s="15">
-        <v>130562.0</v>
+        <v>133120.0</v>
       </c>
       <c r="C71" t="n" s="16">
-        <v>11.17394839317044</v>
+        <v>11.170324796996631</v>
       </c>
       <c r="D71" t="n" s="15">
-        <v>129297.0</v>
+        <v>131779.0</v>
       </c>
       <c r="E71" t="n" s="16">
-        <v>11.065685309598186</v>
+        <v>11.057799214418715</v>
       </c>
     </row>
     <row r="72">
@@ -2614,16 +2614,16 @@
         <v>84</v>
       </c>
       <c r="B72" t="n" s="13">
-        <v>47382.0</v>
+        <v>48262.0</v>
       </c>
       <c r="C72" t="n" s="14">
-        <v>4.055115751636784</v>
+        <v>4.049746209079413</v>
       </c>
       <c r="D72" t="n" s="13">
-        <v>48312.0</v>
+        <v>49174.0</v>
       </c>
       <c r="E72" t="n" s="14">
-        <v>4.134708374342077</v>
+        <v>4.12627367463576</v>
       </c>
     </row>
     <row r="73">
@@ -2631,16 +2631,16 @@
         <v>85</v>
       </c>
       <c r="B73" t="n" s="15">
-        <v>69513.0</v>
+        <v>70726.0</v>
       </c>
       <c r="C73" t="n" s="16">
-        <v>5.949163421626942</v>
+        <v>5.934738518572595</v>
       </c>
       <c r="D73" t="n" s="15">
-        <v>70040.0</v>
+        <v>71322.0</v>
       </c>
       <c r="E73" t="n" s="16">
-        <v>5.994265907826608</v>
+        <v>5.984749888607226</v>
       </c>
     </row>
     <row r="74">
@@ -2648,16 +2648,16 @@
         <v>86</v>
       </c>
       <c r="B74" t="n" s="13">
-        <v>159528.0</v>
+        <v>163158.0</v>
       </c>
       <c r="C74" t="n" s="14">
-        <v>13.652959048311866</v>
+        <v>13.690864282064128</v>
       </c>
       <c r="D74" t="n" s="13">
-        <v>155262.0</v>
+        <v>158850.0</v>
       </c>
       <c r="E74" t="n" s="14">
-        <v>13.287859985450812</v>
+        <v>13.329372701344013</v>
       </c>
     </row>
     <row r="75">
@@ -2665,16 +2665,16 @@
         <v>87</v>
       </c>
       <c r="B75" t="n" s="15">
-        <v>50731.0</v>
+        <v>51748.0</v>
       </c>
       <c r="C75" t="n" s="16">
-        <v>4.341734776841114</v>
+        <v>4.342262376765187</v>
       </c>
       <c r="D75" t="n" s="15">
-        <v>51051.0</v>
+        <v>52074.0</v>
       </c>
       <c r="E75" t="n" s="16">
-        <v>4.369121485728957</v>
+        <v>4.369617589233794</v>
       </c>
     </row>
     <row r="76">
@@ -2682,16 +2682,16 @@
         <v>88</v>
       </c>
       <c r="B76" t="n" s="13">
-        <v>22718.0</v>
+        <v>23076.0</v>
       </c>
       <c r="C76" t="n" s="14">
-        <v>1.9442851641062946</v>
+        <v>1.936346266642836</v>
       </c>
       <c r="D76" t="n" s="13">
-        <v>21857.0</v>
+        <v>22217.0</v>
       </c>
       <c r="E76" t="n" s="14">
-        <v>1.8705978005049424</v>
+        <v>1.8642661209050042</v>
       </c>
     </row>
     <row r="77">
@@ -2699,16 +2699,16 @@
         <v>89</v>
       </c>
       <c r="B77" t="n" s="15">
-        <v>11050.0</v>
+        <v>11148.0</v>
       </c>
       <c r="C77" t="n" s="16">
-        <v>0.945697291283324</v>
+        <v>0.9354475723927167</v>
       </c>
       <c r="D77" t="n" s="15">
-        <v>11602.0</v>
+        <v>11734.0</v>
       </c>
       <c r="E77" t="n" s="16">
-        <v>0.992939364114853</v>
+        <v>0.9846198254804573</v>
       </c>
     </row>
     <row r="78">
@@ -2716,16 +2716,16 @@
         <v>90</v>
       </c>
       <c r="B78" t="n" s="13">
-        <v>61167.0</v>
+        <v>62286.0</v>
       </c>
       <c r="C78" t="n" s="14">
-        <v>5.23488382044589</v>
+        <v>5.226523815397628</v>
       </c>
       <c r="D78" t="n" s="13">
-        <v>60785.0</v>
+        <v>61878.0</v>
       </c>
       <c r="E78" t="n" s="14">
-        <v>5.202190936711027</v>
+        <v>5.192287843964525</v>
       </c>
     </row>
     <row r="79">
@@ -2733,16 +2733,16 @@
         <v>91</v>
       </c>
       <c r="B79" t="n" s="15">
-        <v>53444.0</v>
+        <v>54376.0</v>
       </c>
       <c r="C79" t="n" s="16">
-        <v>4.5739227181308575</v>
+        <v>4.56278231040782</v>
       </c>
       <c r="D79" t="n" s="15">
-        <v>53117.0</v>
+        <v>54021.0</v>
       </c>
       <c r="E79" t="n" s="16">
-        <v>4.545936924986093</v>
+        <v>4.532993658793232</v>
       </c>
     </row>
     <row r="80">
@@ -2750,16 +2750,16 @@
         <v>92</v>
       </c>
       <c r="B80" t="n" s="13">
-        <v>26755.0</v>
+        <v>27230.0</v>
       </c>
       <c r="C80" t="n" s="14">
-        <v>2.2897856134194874</v>
+        <v>2.2849154463808468</v>
       </c>
       <c r="D80" t="n" s="13">
-        <v>26699.0</v>
+        <v>27172.0</v>
       </c>
       <c r="E80" t="n" s="14">
-        <v>2.284992939364115</v>
+        <v>2.280048568088886</v>
       </c>
     </row>
     <row r="81">
@@ -2767,16 +2767,16 @@
         <v>93</v>
       </c>
       <c r="B81" t="n" s="15">
-        <v>34510.0</v>
+        <v>35098.0</v>
       </c>
       <c r="C81" t="n" s="16">
-        <v>2.953485386623304</v>
+        <v>2.9451326601937184</v>
       </c>
       <c r="D81" t="n" s="15">
-        <v>33929.0</v>
+        <v>34491.0</v>
       </c>
       <c r="E81" t="n" s="16">
-        <v>2.9037613932988147</v>
+        <v>2.8941982615175093</v>
       </c>
     </row>
     <row r="82">
@@ -2784,16 +2784,16 @@
         <v>94</v>
       </c>
       <c r="B82" t="n" s="13">
-        <v>60913.0</v>
+        <v>62076.0</v>
       </c>
       <c r="C82" t="n" s="14">
-        <v>5.213145620266165</v>
+        <v>5.208902359512943</v>
       </c>
       <c r="D82" t="n" s="13">
-        <v>57716.0</v>
+        <v>58773.0</v>
       </c>
       <c r="E82" t="n" s="14">
-        <v>4.939535281783559</v>
+        <v>4.931742031955252</v>
       </c>
     </row>
     <row r="83">
@@ -2801,16 +2801,16 @@
         <v>95</v>
       </c>
       <c r="B83" t="n" s="15">
-        <v>168174.0</v>
+        <v>171881.0</v>
       </c>
       <c r="C83" t="n" s="16">
-        <v>14.392913689075272</v>
+        <v>14.422825994836074</v>
       </c>
       <c r="D83" t="n" s="15">
-        <v>172353.0</v>
+        <v>176201.0</v>
       </c>
       <c r="E83" t="n" s="16">
-        <v>14.750566990457445</v>
+        <v>14.785324515892457</v>
       </c>
     </row>
     <row r="84">
@@ -2818,16 +2818,16 @@
         <v>96</v>
       </c>
       <c r="B84" t="n" s="13">
-        <v>48440.0</v>
+        <v>49335.0</v>
       </c>
       <c r="C84" t="n" s="14">
-        <v>4.145663057897214</v>
+        <v>4.139783457480686</v>
       </c>
       <c r="D84" t="n" s="13">
-        <v>48796.0</v>
+        <v>49693.0</v>
       </c>
       <c r="E84" t="n" s="14">
-        <v>4.17613077153494</v>
+        <v>4.169823844179339</v>
       </c>
     </row>
     <row r="85">
@@ -2835,16 +2835,16 @@
         <v>97</v>
       </c>
       <c r="B85" t="n" s="15">
-        <v>56388.0</v>
+        <v>57485.0</v>
       </c>
       <c r="C85" t="n" s="16">
-        <v>4.825880439899011</v>
+        <v>4.823663769195849</v>
       </c>
       <c r="D85" t="n" s="15">
-        <v>60016.0</v>
+        <v>61198.0</v>
       </c>
       <c r="E85" t="n" s="16">
-        <v>5.13637725191493</v>
+        <v>5.135227891576021</v>
       </c>
     </row>
     <row r="86">
@@ -2852,16 +2852,16 @@
         <v>98</v>
       </c>
       <c r="B86" t="n" s="13">
-        <v>167175.0</v>
+        <v>170724.0</v>
       </c>
       <c r="C86" t="n" s="14">
-        <v>14.307415807266036</v>
+        <v>14.325740164080928</v>
       </c>
       <c r="D86" t="n" s="13">
-        <v>167618.0</v>
+        <v>171152.0</v>
       </c>
       <c r="E86" t="n" s="14">
-        <v>14.345329282382643</v>
+        <v>14.36165436940781</v>
       </c>
     </row>
     <row r="88">
@@ -2869,16 +2869,16 @@
         <v>82</v>
       </c>
       <c r="B88" t="n" s="15">
-        <v>1168450.0</v>
+        <v>1191729.0</v>
       </c>
       <c r="C88" t="n" s="16">
         <v>100.0</v>
       </c>
       <c r="D88" t="n" s="15">
-        <v>1168450.0</v>
+        <v>1191729.0</v>
       </c>
       <c r="E88" t="n" s="16">
-        <v>100.0</v>
+        <v>100.00000000000001</v>
       </c>
     </row>
   </sheetData>
